--- a/02_FDG_PET_data/Analysis/03_statistics/stats_table_wb_norm.xlsx
+++ b/02_FDG_PET_data/Analysis/03_statistics/stats_table_wb_norm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>df</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>eta²</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -512,6 +517,9 @@
           <t>(3, 19)</t>
         </is>
       </c>
+      <c r="I2" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -550,6 +558,9 @@
           <t>(3, 19)</t>
         </is>
       </c>
+      <c r="I3" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -588,6 +599,9 @@
           <t>(3, 19)</t>
         </is>
       </c>
+      <c r="I4" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -626,6 +640,9 @@
           <t>3</t>
         </is>
       </c>
+      <c r="I5" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -664,6 +681,9 @@
           <t>(3, 19)</t>
         </is>
       </c>
+      <c r="I6" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -702,6 +722,9 @@
           <t>(3, 19)</t>
         </is>
       </c>
+      <c r="I7" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -740,6 +763,9 @@
           <t>3</t>
         </is>
       </c>
+      <c r="I8" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -777,6 +803,9 @@
         <is>
           <t>(3, 19)</t>
         </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
